--- a/docs/pm/面向监控的服务平台开发阶段-任务分工20181217.xlsx
+++ b/docs/pm/面向监控的服务平台开发阶段-任务分工20181217.xlsx
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -267,7 +267,89 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,10 +364,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,20 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -319,60 +395,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,37 +416,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="48">
     <fill>
@@ -522,25 +522,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,145 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,56 +858,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +890,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -952,153 +928,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1692,7 +1692,9 @@
       <c r="G2" s="29">
         <v>43451</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="29">
+        <v>43453</v>
+      </c>
       <c r="I2" s="31"/>
       <c r="J2" s="32"/>
     </row>
@@ -1715,8 +1717,12 @@
       <c r="F3" s="29">
         <v>43455</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="29">
+        <v>43454</v>
+      </c>
+      <c r="H3" s="29">
+        <v>43454</v>
+      </c>
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
     </row>
@@ -1739,8 +1745,12 @@
       <c r="F4" s="29">
         <v>43458</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="29">
+        <v>43455</v>
+      </c>
+      <c r="H4" s="29">
+        <v>43455</v>
+      </c>
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
@@ -1758,12 +1768,14 @@
         <v>16</v>
       </c>
       <c r="E5" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F5" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G5" s="29">
+        <v>43455</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
@@ -1780,12 +1792,14 @@
         <v>16</v>
       </c>
       <c r="E6" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F6" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G6" s="29">
+        <v>43455</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
@@ -1802,12 +1816,14 @@
         <v>16</v>
       </c>
       <c r="E7" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F7" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G7" s="29">
+        <v>43455</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
@@ -1826,12 +1842,14 @@
         <v>16</v>
       </c>
       <c r="E8" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F8" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G8" s="29">
+        <v>43455</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
@@ -1848,12 +1866,14 @@
         <v>16</v>
       </c>
       <c r="E9" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F9" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G9" s="29">
+        <v>43455</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
@@ -1872,12 +1892,14 @@
         <v>16</v>
       </c>
       <c r="E10" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F10" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G10" s="29">
+        <v>43455</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
@@ -1896,12 +1918,14 @@
         <v>16</v>
       </c>
       <c r="E11" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F11" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G11" s="29">
+        <v>43455</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
@@ -1918,12 +1942,14 @@
         <v>16</v>
       </c>
       <c r="E12" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F12" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G12" s="29">
+        <v>43455</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="31"/>
       <c r="J12" s="32"/>
@@ -1940,12 +1966,14 @@
         <v>16</v>
       </c>
       <c r="E13" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F13" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G13" s="29">
+        <v>43455</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
@@ -1962,12 +1990,14 @@
         <v>16</v>
       </c>
       <c r="E14" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F14" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G14" s="29">
+        <v>43455</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
@@ -1984,12 +2014,14 @@
         <v>16</v>
       </c>
       <c r="E15" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F15" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G15" s="29">
+        <v>43455</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
@@ -2008,12 +2040,14 @@
         <v>16</v>
       </c>
       <c r="E16" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F16" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G16" s="29">
+        <v>43455</v>
+      </c>
       <c r="H16" s="29"/>
       <c r="I16" s="31"/>
       <c r="J16" s="32"/>
@@ -2032,12 +2066,14 @@
         <v>16</v>
       </c>
       <c r="E17" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F17" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G17" s="29">
+        <v>43455</v>
+      </c>
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
@@ -2054,12 +2090,14 @@
         <v>16</v>
       </c>
       <c r="E18" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F18" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G18" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G18" s="29">
+        <v>43455</v>
+      </c>
       <c r="H18" s="29"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
@@ -2078,12 +2116,14 @@
         <v>16</v>
       </c>
       <c r="E19" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F19" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G19" s="29">
+        <v>43455</v>
+      </c>
       <c r="H19" s="29"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
@@ -2100,12 +2140,14 @@
         <v>16</v>
       </c>
       <c r="E20" s="29">
-        <v>43459</v>
+        <v>43455</v>
       </c>
       <c r="F20" s="29">
-        <v>43460</v>
-      </c>
-      <c r="G20" s="29"/>
+        <v>43458</v>
+      </c>
+      <c r="G20" s="29">
+        <v>43455</v>
+      </c>
       <c r="H20" s="29"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32"/>
@@ -2124,10 +2166,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="29">
-        <v>43461</v>
+        <v>43459</v>
       </c>
       <c r="F21" s="29">
-        <v>43461</v>
+        <v>43459</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>

--- a/docs/pm/面向监控的服务平台开发阶段-任务分工20181217.xlsx
+++ b/docs/pm/面向监控的服务平台开发阶段-任务分工20181217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>大项目</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>菜单项管理</t>
+  </si>
+  <si>
+    <t>部门管理接口录入</t>
   </si>
   <si>
     <t>部门管理</t>
@@ -229,9 +232,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -275,13 +278,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,10 +291,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,10 +345,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,20 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,11 +375,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,44 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -416,6 +412,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="48">
     <fill>
@@ -528,55 +531,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,115 +687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,16 +868,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +913,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,183 +955,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,7 +1101,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,7 +1624,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1776,7 +1779,9 @@
       <c r="G5" s="29">
         <v>43455</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29">
+        <v>43459</v>
+      </c>
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
@@ -1800,7 +1805,9 @@
       <c r="G6" s="29">
         <v>43455</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="29">
+        <v>43459</v>
+      </c>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
@@ -1824,7 +1831,9 @@
       <c r="G7" s="29">
         <v>43455</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="29">
+        <v>43458</v>
+      </c>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
@@ -1850,7 +1859,9 @@
       <c r="G8" s="29">
         <v>43455</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="29">
+        <v>43458</v>
+      </c>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
@@ -1874,7 +1885,9 @@
       <c r="G9" s="29">
         <v>43455</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="29">
+        <v>43458</v>
+      </c>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
@@ -1883,7 +1896,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>21</v>
@@ -1900,19 +1913,21 @@
       <c r="G10" s="29">
         <v>43455</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="29">
+        <v>43459</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:10">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
@@ -1926,17 +1941,19 @@
       <c r="G11" s="29">
         <v>43455</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="29">
+        <v>43458</v>
+      </c>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:10">
       <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1950,17 +1967,19 @@
       <c r="G12" s="29">
         <v>43455</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="29">
+        <v>43458</v>
+      </c>
       <c r="I12" s="31"/>
       <c r="J12" s="32"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:10">
       <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
@@ -1974,17 +1993,19 @@
       <c r="G13" s="29">
         <v>43455</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="29">
+        <v>43458</v>
+      </c>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:10">
       <c r="A14" s="18"/>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1998,17 +2019,19 @@
       <c r="G14" s="29">
         <v>43455</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="29">
+        <v>43458</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:10">
       <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>16</v>
@@ -2022,19 +2045,21 @@
       <c r="G15" s="29">
         <v>43455</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="29">
+        <v>43458</v>
+      </c>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
@@ -2048,16 +2073,18 @@
       <c r="G16" s="29">
         <v>43455</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29">
+        <v>43458</v>
+      </c>
       <c r="I16" s="31"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:10">
       <c r="A17" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>26</v>
@@ -2074,17 +2101,19 @@
       <c r="G17" s="29">
         <v>43455</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="29">
+        <v>43458</v>
+      </c>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:10">
       <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -2098,16 +2127,18 @@
       <c r="G18" s="29">
         <v>43455</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="29">
+        <v>43458</v>
+      </c>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:10">
       <c r="A19" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
@@ -2124,17 +2155,19 @@
       <c r="G19" s="29">
         <v>43455</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="29">
+        <v>43459</v>
+      </c>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:10">
       <c r="A20" s="21"/>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>16</v>
@@ -2148,16 +2181,18 @@
       <c r="G20" s="29">
         <v>43455</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="29">
+        <v>43458</v>
+      </c>
       <c r="I20" s="31"/>
       <c r="J20" s="32"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:10">
       <c r="A21" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
@@ -2171,14 +2206,18 @@
       <c r="F21" s="29">
         <v>43459</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="29">
+        <v>43455</v>
+      </c>
+      <c r="H21" s="29">
+        <v>43459</v>
+      </c>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
     </row>
     <row r="22" ht="32" customHeight="1" spans="1:10">
       <c r="A22" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>

--- a/docs/pm/面向监控的服务平台开发阶段-任务分工20181217.xlsx
+++ b/docs/pm/面向监控的服务平台开发阶段-任务分工20181217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>大项目</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>菜单项管理</t>
-  </si>
-  <si>
-    <t>部门管理接口录入</t>
   </si>
   <si>
     <t>部门管理</t>
@@ -232,9 +229,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -278,6 +275,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,13 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -305,8 +302,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +363,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -328,19 +387,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,59 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -412,13 +416,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="48">
     <fill>
@@ -531,13 +528,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +654,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,145 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,40 +865,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,21 +886,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,144 +913,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,7 +1098,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,7 +1621,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1779,9 +1776,7 @@
       <c r="G5" s="29">
         <v>43455</v>
       </c>
-      <c r="H5" s="29">
-        <v>43459</v>
-      </c>
+      <c r="H5" s="29"/>
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
@@ -1805,9 +1800,7 @@
       <c r="G6" s="29">
         <v>43455</v>
       </c>
-      <c r="H6" s="29">
-        <v>43459</v>
-      </c>
+      <c r="H6" s="29"/>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
@@ -1831,9 +1824,7 @@
       <c r="G7" s="29">
         <v>43455</v>
       </c>
-      <c r="H7" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H7" s="29"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
@@ -1859,9 +1850,7 @@
       <c r="G8" s="29">
         <v>43455</v>
       </c>
-      <c r="H8" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H8" s="29"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
@@ -1885,9 +1874,7 @@
       <c r="G9" s="29">
         <v>43455</v>
       </c>
-      <c r="H9" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H9" s="29"/>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
@@ -1896,7 +1883,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>21</v>
@@ -1913,21 +1900,19 @@
       <c r="G10" s="29">
         <v>43455</v>
       </c>
-      <c r="H10" s="29">
-        <v>43459</v>
-      </c>
+      <c r="H10" s="29"/>
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:10">
       <c r="A11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
@@ -1941,19 +1926,17 @@
       <c r="G11" s="29">
         <v>43455</v>
       </c>
-      <c r="H11" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H11" s="29"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:10">
       <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1967,19 +1950,17 @@
       <c r="G12" s="29">
         <v>43455</v>
       </c>
-      <c r="H12" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H12" s="29"/>
       <c r="I12" s="31"/>
       <c r="J12" s="32"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:10">
       <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
@@ -1993,19 +1974,17 @@
       <c r="G13" s="29">
         <v>43455</v>
       </c>
-      <c r="H13" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:10">
       <c r="A14" s="18"/>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -2019,19 +1998,17 @@
       <c r="G14" s="29">
         <v>43455</v>
       </c>
-      <c r="H14" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H14" s="29"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:10">
       <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>16</v>
@@ -2045,21 +2022,19 @@
       <c r="G15" s="29">
         <v>43455</v>
       </c>
-      <c r="H15" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H15" s="29"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
@@ -2073,18 +2048,16 @@
       <c r="G16" s="29">
         <v>43455</v>
       </c>
-      <c r="H16" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H16" s="29"/>
       <c r="I16" s="31"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:10">
       <c r="A17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>26</v>
@@ -2101,19 +2074,17 @@
       <c r="G17" s="29">
         <v>43455</v>
       </c>
-      <c r="H17" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:10">
       <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -2127,18 +2098,16 @@
       <c r="G18" s="29">
         <v>43455</v>
       </c>
-      <c r="H18" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H18" s="29"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:10">
       <c r="A19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
@@ -2155,19 +2124,17 @@
       <c r="G19" s="29">
         <v>43455</v>
       </c>
-      <c r="H19" s="29">
-        <v>43459</v>
-      </c>
+      <c r="H19" s="29"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:10">
       <c r="A20" s="21"/>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>16</v>
@@ -2181,18 +2148,16 @@
       <c r="G20" s="29">
         <v>43455</v>
       </c>
-      <c r="H20" s="29">
-        <v>43458</v>
-      </c>
+      <c r="H20" s="29"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:10">
       <c r="A21" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
@@ -2206,18 +2171,14 @@
       <c r="F21" s="29">
         <v>43459</v>
       </c>
-      <c r="G21" s="29">
-        <v>43455</v>
-      </c>
-      <c r="H21" s="29">
-        <v>43459</v>
-      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
     </row>
     <row r="22" ht="32" customHeight="1" spans="1:10">
       <c r="A22" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
